--- a/sport/output/9.xlsx
+++ b/sport/output/9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>title</t>
   </si>
@@ -25,91 +25,112 @@
     <t>end_datetime_str</t>
   </si>
   <si>
-    <t xml:space="preserve">5th IHF Men’s Emerging Nations Championship </t>
-  </si>
-  <si>
-    <t>2024/2025 Men's IHF Trophy – Intercontinental Phase</t>
-  </si>
-  <si>
-    <t>3rd IHF Men's and Women's Youth (U17) Beach Handball World Championships</t>
-  </si>
-  <si>
-    <t>25th IHF Men's Junior (U21) World Championship</t>
-  </si>
-  <si>
-    <t>11th IHF Men's Youth (U19) World Championship</t>
-  </si>
-  <si>
-    <t>The World Games 2025</t>
-  </si>
-  <si>
     <t>27th IHF Women's World Championship</t>
   </si>
   <si>
+    <t>25th IHF Women's Junior (U20) World Championship</t>
+  </si>
+  <si>
+    <t>11th IHF Women's Youth (U18) World Championship</t>
+  </si>
+  <si>
     <t>IV Summer Youth Olympic Games</t>
   </si>
   <si>
     <t>30th IHF Men's World Championship</t>
   </si>
   <si>
+    <t>26th IHF Men's Junior (U21) World Championship</t>
+  </si>
+  <si>
+    <t>12th IHF Men's Youth (U19) World Championship</t>
+  </si>
+  <si>
     <t>28th IHF Women's World Championship</t>
   </si>
   <si>
-    <t>11 Mar. 2025</t>
-  </si>
-  <si>
-    <t>12 Mar. 2025</t>
-  </si>
-  <si>
-    <t>17 Jun. 2025</t>
-  </si>
-  <si>
-    <t>18 Jun. 2025</t>
-  </si>
-  <si>
-    <t>06 Aug. 2025</t>
-  </si>
-  <si>
-    <t>08 Aug. 2025</t>
+    <t>26th IHF Women's Junior (U20) World Championship</t>
+  </si>
+  <si>
+    <t>Olympic Games Los Angeles 2028</t>
+  </si>
+  <si>
+    <t>12th IHF Women's Youth (U18) World Championship</t>
+  </si>
+  <si>
+    <t>31st IHF Men's World Championship</t>
   </si>
   <si>
     <t>26 Nov. 2025</t>
   </si>
   <si>
+    <t>24 Jun. 2026</t>
+  </si>
+  <si>
+    <t>29 Jul. 2026</t>
+  </si>
+  <si>
     <t>31 Oct. 2026</t>
   </si>
   <si>
     <t>01 Jan. 2027</t>
   </si>
   <si>
+    <t>23 Jun. 2027</t>
+  </si>
+  <si>
+    <t>29 Jul. 2027</t>
+  </si>
+  <si>
     <t>01 Dec. 2027</t>
   </si>
   <si>
-    <t>16 Mar. 2025</t>
-  </si>
-  <si>
-    <t>22 Jun. 2025</t>
-  </si>
-  <si>
-    <t>29 Jun. 2025</t>
-  </si>
-  <si>
-    <t>17 Aug. 2025</t>
-  </si>
-  <si>
-    <t>12 Aug. 2025</t>
+    <t>14 Jun. 2028</t>
+  </si>
+  <si>
+    <t>14 Jul. 2028</t>
+  </si>
+  <si>
+    <t>09 Aug. 2028</t>
+  </si>
+  <si>
+    <t>10 Jan. 2029</t>
   </si>
   <si>
     <t>14 Dec. 2025</t>
   </si>
   <si>
+    <t>05 Jul. 2026</t>
+  </si>
+  <si>
+    <t>09 Aug. 2026</t>
+  </si>
+  <si>
     <t>13 Nov. 2026</t>
   </si>
   <si>
     <t>31 Jan. 2027</t>
   </si>
   <si>
+    <t>04 Jul. 2027</t>
+  </si>
+  <si>
+    <t>09 Aug. 2027</t>
+  </si>
+  <si>
     <t>31 Dec. 2027</t>
+  </si>
+  <si>
+    <t>25 Jun. 2028</t>
+  </si>
+  <si>
+    <t>30 Jul. 2028</t>
+  </si>
+  <si>
+    <t>20 Aug. 2028</t>
+  </si>
+  <si>
+    <t>28 Jan. 2029</t>
   </si>
 </sst>
 </file>
@@ -467,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -533,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -544,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -555,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -566,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -577,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -588,10 +609,32 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
